--- a/biology/Zoologie/Diacrisia_sannio/Diacrisia_sannio.xlsx
+++ b/biology/Zoologie/Diacrisia_sannio/Diacrisia_sannio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bordure ensanglantée, Roussette
 La Bordure ensanglantée ou la Roussette (Diacrisia sannio) est une espèce paléarctique de lépidoptères (papillons) de la famille des Erebidae et de la sous-famille des Arctiinae.
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			♂  MHNT
@@ -545,9 +559,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est répandue en Eurasie[1], y compris dans toute la France métropolitaine[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est répandue en Eurasie, y compris dans toute la France métropolitaine.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Habitats et plantes hôtes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prairies humides, forêts marécageuses mais aussi pentes sèches, clairières, coupes et lisières. Chenille sur de nombreuses plantes basses[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prairies humides, forêts marécageuses mais aussi pentes sèches, clairières, coupes et lisières. Chenille sur de nombreuses plantes basses.
 </t>
         </is>
       </c>
@@ -607,10 +625,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Vol d'avril à août selon la localisation.
-Le mâle vole le jour, la femelle est plutôt nocturne[4]. 
+Le mâle vole le jour, la femelle est plutôt nocturne. 
 </t>
         </is>
       </c>
